--- a/app/data/static/params/ricotta_test.xlsx
+++ b/app/data/static/params/ricotta_test.xlsx
@@ -482,7 +482,7 @@
   <dimension ref="A1:V1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,7 +565,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
@@ -630,7 +630,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>25</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -760,7 +760,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>30</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>33</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>35</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>38</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>41</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>44</v>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>47</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>50</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>53</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>56</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>59</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>61</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>64</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>67</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>70</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>

--- a/app/data/static/params/ricotta_test.xlsx
+++ b/app/data/static/params/ricotta_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Вкусовая добавка</t>
   </si>
   <si>
+    <t xml:space="preserve">Вначале</t>
+  </si>
+  <si>
     <t xml:space="preserve">Название форм фактора</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t xml:space="preserve">Рикотта "Unagrande", 50%, 0,25 кг, пл/с</t>
   </si>
   <si>
+    <t xml:space="preserve">Нет</t>
+  </si>
+  <si>
     <t xml:space="preserve">Рикотта</t>
   </si>
   <si>
@@ -146,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">Рикотта "Красная птица", 30%,  0,25 кг, пл/с (6 шт)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да</t>
   </si>
   <si>
     <t xml:space="preserve">Красная птица</t>
@@ -479,10 +488,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1048576"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -491,11 +500,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1019" min="14" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="22.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1020" min="15" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,70 +571,76 @@
       <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I2" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0</v>
+      <c r="J2" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q2" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R2" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V2" s="0" t="s">
-        <v>24</v>
+      <c r="V2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -633,64 +648,67 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>50</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I3" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>0</v>
+      <c r="J3" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q3" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R3" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V3" s="0" t="s">
-        <v>26</v>
+      <c r="V3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -698,64 +716,67 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>0</v>
+      <c r="J4" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q4" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R4" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V4" s="0" t="s">
-        <v>29</v>
+      <c r="V4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,64 +784,67 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0</v>
+      <c r="J5" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O5" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R5" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V5" s="0" t="s">
-        <v>32</v>
+      <c r="V5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,64 +852,67 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I6" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0</v>
+      <c r="J6" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q6" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R6" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V6" s="0" t="s">
-        <v>34</v>
+      <c r="V6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,64 +920,67 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
+      <c r="J7" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O7" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q7" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R7" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V7" s="0" t="s">
-        <v>37</v>
+      <c r="V7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,64 +988,67 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>0.18</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J8" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="M8" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="N8" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O8" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q8" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R8" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V8" s="0" t="s">
-        <v>40</v>
+      <c r="V8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,64 +1056,67 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O9" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q9" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R9" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V9" s="0" t="s">
-        <v>43</v>
+      <c r="V9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,67 +1124,70 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I10" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0</v>
+      <c r="J10" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O10" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q10" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R10" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" s="0" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,67 +1195,70 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I11" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <v>0</v>
+      <c r="J11" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O11" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q11" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R11" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" s="0" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1224,64 +1266,67 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J12" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q12" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R12" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V12" s="0" t="s">
-        <v>52</v>
+      <c r="V12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,67 +1334,70 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I13" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0</v>
+      <c r="J13" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O13" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q13" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R13" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V13" s="0" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,67 +1405,70 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I14" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0</v>
+      <c r="J14" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q14" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R14" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V14" s="0" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,67 +1476,70 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I15" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>0</v>
+      <c r="J15" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O15" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q15" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R15" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" s="0" t="s">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,64 +1547,67 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>0.25</v>
       </c>
-      <c r="I16" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0</v>
+      <c r="J16" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O16" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q16" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R16" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V16" s="0" t="s">
-        <v>63</v>
+      <c r="V16" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1558,67 +1615,70 @@
         <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>30</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J17" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
         <v>250</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="O17" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q17" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R17" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V17" s="0" t="s">
-        <v>66</v>
+        <v>15</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,64 +1686,67 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H18" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J18" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="N18" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="O18" s="0" t="n">
         <v>10</v>
       </c>
       <c r="P18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q18" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R18" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T18" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="V18" s="0" t="s">
-        <v>69</v>
+      <c r="V18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1691,67 +1754,70 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>35</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="I19" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0</v>
+      <c r="J19" s="5" t="n">
+        <v>6</v>
       </c>
       <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
         <v>350</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="O19" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="P19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="Q19" s="0" t="n">
-        <v>15</v>
-      </c>
       <c r="R19" s="0" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>71</v>
+        <v>15</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="W19" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,74 +1825,72 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="I20" s="4" t="n">
-        <v>6</v>
-      </c>
       <c r="J20" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="n">
         <v>250</v>
       </c>
-      <c r="L20" s="4" t="n">
+      <c r="M20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="M20" s="4" t="n">
+      <c r="N20" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="N20" s="4" t="n">
+      <c r="O20" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="O20" s="4" t="n">
-        <v>10</v>
-      </c>
       <c r="P20" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="Q20" s="4" t="n">
-        <v>15</v>
-      </c>
       <c r="R20" s="4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="S20" s="4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T20" s="4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="U20" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="V20" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
